--- a/每週買賣報表/ETF放空單週損益.xlsx
+++ b/每週買賣報表/ETF放空單週損益.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1146"/>
+  <dimension ref="A1:B1147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2583,7 +2583,7 @@
         <v>39171</v>
       </c>
       <c r="B275">
-        <v>-24.09808577130971</v>
+        <v>-24.10462826671023</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>39178</v>
       </c>
       <c r="B276">
-        <v>3.818510430431258</v>
+        <v>3.819677358435514</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>39185</v>
       </c>
       <c r="B277">
-        <v>-10.73274745439894</v>
+        <v>-10.73134024722853</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>39192</v>
       </c>
       <c r="B278">
-        <v>23.61705988134655</v>
+        <v>23.62610457202713</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>39199</v>
       </c>
       <c r="B279">
-        <v>35.63396621048829</v>
+        <v>35.63259485649252</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>39206</v>
       </c>
       <c r="B280">
-        <v>-23.95783411670253</v>
+        <v>-23.96285992301598</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>39227</v>
       </c>
       <c r="B283">
-        <v>-49.63763579760112</v>
+        <v>-49.61996451265481</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>39388</v>
       </c>
       <c r="B306">
-        <v>73.06450657760371</v>
+        <v>73.06888436610114</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>39395</v>
       </c>
       <c r="B307">
-        <v>228.3567389903177</v>
+        <v>228.3465284326101</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>39402</v>
       </c>
       <c r="B308">
-        <v>18.65026220725572</v>
+        <v>18.65947341982096</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>39409</v>
       </c>
       <c r="B309">
-        <v>146.2520105586852</v>
+        <v>146.2461770752818</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>39416</v>
       </c>
       <c r="B310">
-        <v>-40.26203892516084</v>
+        <v>-40.25136319235198</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>39423</v>
       </c>
       <c r="B311">
-        <v>-111.8659009730935</v>
+        <v>-111.8731669389142</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>39437</v>
       </c>
       <c r="B313">
-        <v>390.0410533674282</v>
+        <v>390.0410533674281</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>39458</v>
       </c>
       <c r="B316">
-        <v>228.6142841320585</v>
+        <v>228.6149801466827</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>39465</v>
       </c>
       <c r="B317">
-        <v>57.5602074285685</v>
+        <v>57.55547515489974</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>39472</v>
       </c>
       <c r="B318">
-        <v>552.306005598369</v>
+        <v>552.3106637124056</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>39521</v>
       </c>
       <c r="B325">
-        <v>46.13737468585953</v>
+        <v>46.14441469902023</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>39528</v>
       </c>
       <c r="B326">
-        <v>-91.5802974551504</v>
+        <v>-91.59909400466501</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>39563</v>
       </c>
       <c r="B331">
-        <v>-32.62069609666192</v>
+        <v>-32.63839586656491</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>39577</v>
       </c>
       <c r="B333">
-        <v>19.31441928965024</v>
+        <v>19.31169783393747</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>39584</v>
       </c>
       <c r="B334">
-        <v>-101.9036568886882</v>
+        <v>-101.9161042115909</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>39605</v>
       </c>
       <c r="B337">
-        <v>-48.17539090339811</v>
+        <v>-48.19383089142038</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>39612</v>
       </c>
       <c r="B338">
-        <v>212.7972025663233</v>
+        <v>212.7983226132917</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>39619</v>
       </c>
       <c r="B339">
-        <v>51.55351647306981</v>
+        <v>51.57747380588617</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>39626</v>
       </c>
       <c r="B340">
-        <v>232.2228724699417</v>
+        <v>232.2172940282649</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>39633</v>
       </c>
       <c r="B341">
-        <v>81.88418891187969</v>
+        <v>81.86628232546305</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>39640</v>
       </c>
       <c r="B342">
-        <v>28.47745998213016</v>
+        <v>28.49382599456344</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>39647</v>
       </c>
       <c r="B343">
-        <v>152.5822397219426</v>
+        <v>152.5646003980098</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>39654</v>
       </c>
       <c r="B344">
-        <v>-272.8740972199788</v>
+        <v>-272.8518322261569</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>39661</v>
       </c>
       <c r="B345">
-        <v>84.07273835975433</v>
+        <v>84.07500354891528</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>39668</v>
       </c>
       <c r="B346">
-        <v>-177.9929782760691</v>
+        <v>-178.009990930572</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>39703</v>
       </c>
       <c r="B351">
-        <v>140.896158971655</v>
+        <v>140.8952057950073</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>39731</v>
       </c>
       <c r="B355">
-        <v>736.912805662732</v>
+        <v>736.9012221157653</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>39766</v>
       </c>
       <c r="B360">
-        <v>423.6024288975766</v>
+        <v>423.6233169089341</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>39773</v>
       </c>
       <c r="B361">
-        <v>289.0576407799109</v>
+        <v>289.0455447998548</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>39794</v>
       </c>
       <c r="B364">
-        <v>-530.7183233921933</v>
+        <v>-530.7653442471886</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>39801</v>
       </c>
       <c r="B365">
-        <v>-121.5952518777393</v>
+        <v>-121.5842367208835</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>39815</v>
       </c>
       <c r="B367">
-        <v>-229.418488476225</v>
+        <v>-229.4239475636998</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>39850</v>
       </c>
       <c r="B372">
-        <v>-523.5623655283705</v>
+        <v>-523.5904523157197</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>40207</v>
       </c>
       <c r="B423">
-        <v>61.25183745452138</v>
+        <v>61.2412119485932</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>40214</v>
       </c>
       <c r="B424">
-        <v>92.99472346254437</v>
+        <v>92.99754277004052</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>40221</v>
       </c>
       <c r="B425">
-        <v>-105.2923401015064</v>
+        <v>-105.2952534130093</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>40235</v>
       </c>
       <c r="B427">
-        <v>20.617110860078</v>
+        <v>20.60696528664258</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>40242</v>
       </c>
       <c r="B428">
-        <v>-256.6950095176817</v>
+        <v>-256.6857090022901</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>40249</v>
       </c>
       <c r="B429">
-        <v>-55.09063121378173</v>
+        <v>-55.08660156390486</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>40326</v>
       </c>
       <c r="B440">
-        <v>-205.5796667914764</v>
+        <v>-205.5871716436234</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>40333</v>
       </c>
       <c r="B441">
-        <v>-117.4811852554075</v>
+        <v>-117.4832634444645</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>40340</v>
       </c>
       <c r="B442">
-        <v>116.8055846975572</v>
+        <v>116.812425568474</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>40347</v>
       </c>
       <c r="B443">
-        <v>-194.7877132880719</v>
+        <v>-194.7814087908832</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>40354</v>
       </c>
       <c r="B444">
-        <v>-7.392213748077527</v>
+        <v>-7.412605303958927</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>40361</v>
       </c>
       <c r="B445">
-        <v>144.4075298367714</v>
+        <v>144.4084848439936</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>40368</v>
       </c>
       <c r="B446">
-        <v>-411.2958347565182</v>
+        <v>-411.278903370711</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>40375</v>
       </c>
       <c r="B447">
-        <v>14.60649192428478</v>
+        <v>14.58549728099282</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>40424</v>
       </c>
       <c r="B454">
-        <v>-48.63292789365627</v>
+        <v>-48.64077912459483</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>40431</v>
       </c>
       <c r="B455">
-        <v>-106.9339347600334</v>
+        <v>-106.9334432339432</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>40438</v>
       </c>
       <c r="B456">
-        <v>-154.3019710442042</v>
+        <v>-154.308162187669</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>40445</v>
       </c>
       <c r="B457">
-        <v>-2.6051174757903</v>
+        <v>-2.594324495078242</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>40844</v>
       </c>
       <c r="B514">
-        <v>-257.6457077428487</v>
+        <v>-257.6352156176891</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>40865</v>
       </c>
       <c r="B517">
-        <v>125.4382391456282</v>
+        <v>125.4461100657228</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>40872</v>
       </c>
       <c r="B518">
-        <v>910.2947949032649</v>
+        <v>910.2922407172873</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>40879</v>
       </c>
       <c r="B519">
-        <v>-548.7234729357349</v>
+        <v>-548.7328300049101</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>40886</v>
       </c>
       <c r="B520">
-        <v>528.6942518907953</v>
+        <v>528.6951976709317</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>40893</v>
       </c>
       <c r="B521">
-        <v>96.87577501627993</v>
+        <v>96.89650299679678</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>40900</v>
       </c>
       <c r="B522">
-        <v>-599.8742832221437</v>
+        <v>-599.8748031566863</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>40907</v>
       </c>
       <c r="B523">
-        <v>44.09452306453701</v>
+        <v>44.09147149297767</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>40914</v>
       </c>
       <c r="B524">
-        <v>-66.52684147689762</v>
+        <v>-66.53729032476949</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>41110</v>
       </c>
       <c r="B552">
-        <v>-6.068043637336608</v>
+        <v>-6.071368502545219</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>41117</v>
       </c>
       <c r="B553">
-        <v>56.70364525137263</v>
+        <v>56.69435046841177</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>41124</v>
       </c>
       <c r="B554">
-        <v>-89.08102320775689</v>
+        <v>-89.06836850714379</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>41131</v>
       </c>
       <c r="B555">
-        <v>-156.4844340372022</v>
+        <v>-156.4958003103328</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>41138</v>
       </c>
       <c r="B556">
-        <v>-63.20658070125187</v>
+        <v>-63.20596926042212</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>41145</v>
       </c>
       <c r="B557">
-        <v>2.915758644775247</v>
+        <v>2.915936796663911</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>41159</v>
       </c>
       <c r="B559">
-        <v>-18.61514426351221</v>
+        <v>-18.61722736257499</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>41166</v>
       </c>
       <c r="B560">
-        <v>-63.40403830355026</v>
+        <v>-63.40966985075068</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>41187</v>
       </c>
       <c r="B563">
-        <v>18.36817624839657</v>
+        <v>18.37583747228188</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>41194</v>
       </c>
       <c r="B564">
-        <v>84.99880867218258</v>
+        <v>84.97144840908365</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>41201</v>
       </c>
       <c r="B565">
-        <v>36.84664087190909</v>
+        <v>36.86811674381456</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>41208</v>
       </c>
       <c r="B566">
-        <v>183.5129816459063</v>
+        <v>183.5187188336565</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>41215</v>
       </c>
       <c r="B567">
-        <v>52.43248022886716</v>
+        <v>52.40410705727354</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>41222</v>
       </c>
       <c r="B568">
-        <v>-78.96244255860904</v>
+        <v>-78.97879447439104</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>41229</v>
       </c>
       <c r="B569">
-        <v>91.87070441694729</v>
+        <v>91.91097963090937</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>41236</v>
       </c>
       <c r="B570">
-        <v>-35.09127488413466</v>
+        <v>-35.13790219901055</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>41292</v>
       </c>
       <c r="B578">
-        <v>20.61327420278081</v>
+        <v>20.61414075647255</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>41299</v>
       </c>
       <c r="B579">
-        <v>-6.625919977185851</v>
+        <v>-6.635127358245421</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>41306</v>
       </c>
       <c r="B580">
-        <v>-106.4768840294844</v>
+        <v>-106.4782834666444</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>41313</v>
       </c>
       <c r="B581">
-        <v>49.81617405213766</v>
+        <v>49.82778635161716</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>41327</v>
       </c>
       <c r="B583">
-        <v>-49.62199926890325</v>
+        <v>-49.63046846423532</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>41341</v>
       </c>
       <c r="B585">
-        <v>6.930117296534183</v>
+        <v>6.930117296534181</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>41348</v>
       </c>
       <c r="B586">
-        <v>-27.86844264025291</v>
+        <v>-27.8668908553447</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>41355</v>
       </c>
       <c r="B587">
-        <v>18.22547248955544</v>
+        <v>18.22399099609409</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>41362</v>
       </c>
       <c r="B588">
-        <v>-85.46202066871321</v>
+        <v>-85.46204144441231</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>41439</v>
       </c>
       <c r="B599">
-        <v>111.9026939969609</v>
+        <v>111.8832215093918</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>41446</v>
       </c>
       <c r="B600">
-        <v>20.44129989587004</v>
+        <v>20.46685356285909</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>41453</v>
       </c>
       <c r="B601">
-        <v>-8.659240420304101</v>
+        <v>-8.672591444041098</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>41460</v>
       </c>
       <c r="B602">
-        <v>-41.28253513990829</v>
+        <v>-41.26916777513996</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>41481</v>
       </c>
       <c r="B605">
-        <v>-120.7332754780286</v>
+        <v>-120.7671560766698</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>41502</v>
       </c>
       <c r="B608">
-        <v>-65.55628018110406</v>
+        <v>-65.56417447029598</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>41537</v>
       </c>
       <c r="B613">
-        <v>-10.97656100341195</v>
+        <v>-10.99746004963627</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>41544</v>
       </c>
       <c r="B614">
-        <v>1.092052223624091</v>
+        <v>1.097461990349315</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>41551</v>
       </c>
       <c r="B615">
-        <v>-15.02822519595773</v>
+        <v>-15.01526849927491</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>41579</v>
       </c>
       <c r="B619">
-        <v>75.56046486200617</v>
+        <v>75.56046486200619</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>41621</v>
       </c>
       <c r="B625">
-        <v>39.32321996649029</v>
+        <v>39.32321996649028</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>41838</v>
       </c>
       <c r="B656">
-        <v>-18.23074986786779</v>
+        <v>-18.22690115888802</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>41845</v>
       </c>
       <c r="B657">
-        <v>-39.9413542105156</v>
+        <v>-39.94857482535953</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>41852</v>
       </c>
       <c r="B658">
-        <v>11.92536581010881</v>
+        <v>11.91195895298136</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>41859</v>
       </c>
       <c r="B659">
-        <v>153.2184526181023</v>
+        <v>153.2097726186148</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>41866</v>
       </c>
       <c r="B660">
-        <v>38.03765972949858</v>
+        <v>38.03226720903451</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>41873</v>
       </c>
       <c r="B661">
-        <v>12.6960912707758</v>
+        <v>12.72408387242746</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>41880</v>
       </c>
       <c r="B662">
-        <v>-124.705521029688</v>
+        <v>-124.7222231428175</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>41887</v>
       </c>
       <c r="B663">
-        <v>54.83366422738185</v>
+        <v>54.81526934089045</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>41894</v>
       </c>
       <c r="B664">
-        <v>60.62571910106826</v>
+        <v>60.62186293931421</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>41922</v>
       </c>
       <c r="B668">
-        <v>160.9520445104589</v>
+        <v>160.952044510459</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>41936</v>
       </c>
       <c r="B670">
-        <v>-16.75829168824163</v>
+        <v>-16.77255505079457</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>41943</v>
       </c>
       <c r="B671">
-        <v>-356.4381554874107</v>
+        <v>-356.4345677509461</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>41950</v>
       </c>
       <c r="B672">
-        <v>34.74478178475288</v>
+        <v>34.74029287319681</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>41957</v>
       </c>
       <c r="B673">
-        <v>-49.53649223693272</v>
+        <v>-49.51161769047395</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>41964</v>
       </c>
       <c r="B674">
-        <v>19.56433188704395</v>
+        <v>19.52267090911354</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>41971</v>
       </c>
       <c r="B675">
-        <v>-29.15862933600047</v>
+        <v>-29.13091123237887</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>41992</v>
       </c>
       <c r="B678">
-        <v>19.22792821839226</v>
+        <v>19.22523489100776</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>41999</v>
       </c>
       <c r="B679">
-        <v>-250.0801701254134</v>
+        <v>-250.0769978859226</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>42006</v>
       </c>
       <c r="B680">
-        <v>-16.07820657176288</v>
+        <v>-16.08311857921986</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>42013</v>
       </c>
       <c r="B681">
-        <v>-6.284273902255473</v>
+        <v>-6.282113328407055</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>42020</v>
       </c>
       <c r="B682">
-        <v>21.62136736682956</v>
+        <v>21.62136736682955</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>42041</v>
       </c>
       <c r="B685">
-        <v>34.81534375497381</v>
+        <v>34.81534375497382</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>42048</v>
       </c>
       <c r="B686">
-        <v>-7.295616579237161</v>
+        <v>-7.295616579237163</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>42062</v>
       </c>
       <c r="B688">
-        <v>-77.51914548063633</v>
+        <v>-77.51914548063631</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>42209</v>
       </c>
       <c r="B709">
-        <v>347.1240656245687</v>
+        <v>347.1360460915033</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>42216</v>
       </c>
       <c r="B710">
-        <v>293.1363420542906</v>
+        <v>293.1160988266937</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>42223</v>
       </c>
       <c r="B711">
-        <v>151.858104076265</v>
+        <v>151.8844221052889</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>42230</v>
       </c>
       <c r="B712">
-        <v>-93.41785638049011</v>
+        <v>-93.40921375539682</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>42237</v>
       </c>
       <c r="B713">
-        <v>434.614322055143</v>
+        <v>434.5978454371804</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>42244</v>
       </c>
       <c r="B714">
-        <v>-73.75675242792128</v>
+        <v>-73.75385685949223</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>42251</v>
       </c>
       <c r="B715">
-        <v>-142.4906042996531</v>
+        <v>-142.4904833657949</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>42279</v>
       </c>
       <c r="B719">
-        <v>-194.9720746427958</v>
+        <v>-194.9641263596249</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>42300</v>
       </c>
       <c r="B722">
-        <v>-10.21292172178612</v>
+        <v>-10.21192588597608</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>42307</v>
       </c>
       <c r="B723">
-        <v>-13.78333491262064</v>
+        <v>-13.78716637879531</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>42314</v>
       </c>
       <c r="B724">
-        <v>-81.17775343440766</v>
+        <v>-81.17591846524128</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>42321</v>
       </c>
       <c r="B725">
-        <v>144.6364060726524</v>
+        <v>144.6344639621366</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>42328</v>
       </c>
       <c r="B726">
-        <v>-74.41204722771309</v>
+        <v>-74.41036127526164</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>42335</v>
       </c>
       <c r="B727">
-        <v>55.39186841688652</v>
+        <v>55.39298945797312</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>42342</v>
       </c>
       <c r="B728">
-        <v>-57.14848718852959</v>
+        <v>-57.1490441782425</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>42349</v>
       </c>
       <c r="B729">
-        <v>198.2313153814301</v>
+        <v>198.2306881212136</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>42356</v>
       </c>
       <c r="B730">
-        <v>-168.9648005078887</v>
+        <v>-168.9653696163195</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>42363</v>
       </c>
       <c r="B731">
-        <v>-91.42160398040076</v>
+        <v>-91.42116484838732</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>42370</v>
       </c>
       <c r="B732">
-        <v>38.38220590905956</v>
+        <v>38.38264492145726</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>42377</v>
       </c>
       <c r="B733">
-        <v>211.8737914190433</v>
+        <v>211.8712635673154</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>42384</v>
       </c>
       <c r="B734">
-        <v>192.1380853482091</v>
+        <v>192.1415373237353</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>42391</v>
       </c>
       <c r="B735">
-        <v>-28.39199266388427</v>
+        <v>-28.39036857045352</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>42398</v>
       </c>
       <c r="B736">
-        <v>-195.9624097488963</v>
+        <v>-195.9689469360697</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>42405</v>
       </c>
       <c r="B737">
-        <v>-11.35015894190649</v>
+        <v>-11.34230729714575</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>42461</v>
       </c>
       <c r="B745">
-        <v>52.8819904471645</v>
+        <v>52.88858240403946</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>42468</v>
       </c>
       <c r="B746">
-        <v>43.56379890667604</v>
+        <v>43.56880518937713</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>42475</v>
       </c>
       <c r="B747">
-        <v>5.147166830765846</v>
+        <v>5.150082785412843</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>42482</v>
       </c>
       <c r="B748">
-        <v>109.2262055717531</v>
+        <v>109.217087769326</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>42489</v>
       </c>
       <c r="B749">
-        <v>30.76818006620947</v>
+        <v>30.78355986302156</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>42496</v>
       </c>
       <c r="B750">
-        <v>179.1131343160947</v>
+        <v>179.0952094880055</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6391,7 +6391,7 @@
         <v>42503</v>
       </c>
       <c r="B751">
-        <v>258.4577179999742</v>
+        <v>258.470526075992</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>42510</v>
       </c>
       <c r="B752">
-        <v>-132.8326201905015</v>
+        <v>-132.8328256339888</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>42517</v>
       </c>
       <c r="B753">
-        <v>-326.8124751562407</v>
+        <v>-326.8148635724222</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>42559</v>
       </c>
       <c r="B759">
-        <v>23.43901440351652</v>
+        <v>23.44434160646862</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>42566</v>
       </c>
       <c r="B760">
-        <v>-110.6505890317504</v>
+        <v>-110.6491817819328</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>42573</v>
       </c>
       <c r="B761">
-        <v>-58.22547272098922</v>
+        <v>-58.23567699367734</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>42580</v>
       </c>
       <c r="B762">
-        <v>8.947123201623167</v>
+        <v>8.97508285857856</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6487,7 +6487,7 @@
         <v>42587</v>
       </c>
       <c r="B763">
-        <v>-2.117488181153572</v>
+        <v>-2.137702761033379</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>42594</v>
       </c>
       <c r="B764">
-        <v>67.41207372149671</v>
+        <v>67.42165609415888</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>42601</v>
       </c>
       <c r="B765">
-        <v>3.548016932114581</v>
+        <v>3.540658388376047</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>42608</v>
       </c>
       <c r="B766">
-        <v>-26.31764690338638</v>
+        <v>-26.32219407636142</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>42636</v>
       </c>
       <c r="B770">
-        <v>-91.38396813386954</v>
+        <v>-91.38449229765934</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>42685</v>
       </c>
       <c r="B777">
-        <v>121.5782302383385</v>
+        <v>121.5789130955206</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>42692</v>
       </c>
       <c r="B778">
-        <v>-43.34242630670421</v>
+        <v>-43.33496235608678</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>42699</v>
       </c>
       <c r="B779">
-        <v>-128.4196109497574</v>
+        <v>-128.4311051019908</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>42706</v>
       </c>
       <c r="B780">
-        <v>23.5077141315581</v>
+        <v>23.51097948920186</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>42713</v>
       </c>
       <c r="B781">
-        <v>-115.7131316143568</v>
+        <v>-115.7157638004611</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>42720</v>
       </c>
       <c r="B782">
-        <v>2.659422642210895</v>
+        <v>2.666324419771843</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>42727</v>
       </c>
       <c r="B783">
-        <v>22.39927427266504</v>
+        <v>22.39196839861486</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>42734</v>
       </c>
       <c r="B784">
-        <v>-77.31204100318703</v>
+        <v>-77.32033674508261</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>42741</v>
       </c>
       <c r="B785">
-        <v>-57.31696908595551</v>
+        <v>-57.30361583281972</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>42748</v>
       </c>
       <c r="B786">
-        <v>3.947386533717275</v>
+        <v>3.946542153070469</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>42755</v>
       </c>
       <c r="B787">
-        <v>-5.109080627580997</v>
+        <v>-5.109938142844765</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6687,7 +6687,7 @@
         <v>42762</v>
       </c>
       <c r="B788">
-        <v>-6.674718083611697</v>
+        <v>-6.669913294499835</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>42769</v>
       </c>
       <c r="B789">
-        <v>-28.79791043497956</v>
+        <v>-28.78613309544394</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>42776</v>
       </c>
       <c r="B790">
-        <v>-33.25200051323333</v>
+        <v>-33.25639691579104</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>42783</v>
       </c>
       <c r="B791">
-        <v>6.40734584147925</v>
+        <v>6.402890991959314</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>42790</v>
       </c>
       <c r="B792">
-        <v>-1.094641657091029</v>
+        <v>-1.085612717499076</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6727,7 +6727,7 @@
         <v>42797</v>
       </c>
       <c r="B793">
-        <v>-10.18469431799266</v>
+        <v>-10.19426881642809</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>42818</v>
       </c>
       <c r="B796">
-        <v>12.95846435287017</v>
+        <v>12.95751858095362</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6759,7 +6759,7 @@
         <v>42825</v>
       </c>
       <c r="B797">
-        <v>13.65023508031506</v>
+        <v>13.66718458825512</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>42832</v>
       </c>
       <c r="B798">
-        <v>26.56672218902879</v>
+        <v>26.56607545060315</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>42839</v>
       </c>
       <c r="B799">
-        <v>73.23911608216699</v>
+        <v>73.24722493644305</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>42846</v>
       </c>
       <c r="B800">
-        <v>0.8947483627144699</v>
+        <v>0.8845771487750334</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>42853</v>
       </c>
       <c r="B801">
-        <v>-38.10232084376628</v>
+        <v>-38.1216416485533</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6799,7 +6799,7 @@
         <v>42860</v>
       </c>
       <c r="B802">
-        <v>8.170195435384974</v>
+        <v>8.181916165146419</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>42867</v>
       </c>
       <c r="B803">
-        <v>4.607704963061711</v>
+        <v>4.617548561950445</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>42874</v>
       </c>
       <c r="B804">
-        <v>-14.18111325181773</v>
+        <v>-14.21018691209064</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>42881</v>
       </c>
       <c r="B805">
-        <v>-60.16093188936988</v>
+        <v>-60.13235748006618</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>42888</v>
       </c>
       <c r="B806">
-        <v>-14.46548860489826</v>
+        <v>-14.46456795820511</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>42895</v>
       </c>
       <c r="B807">
-        <v>-26.73485597474759</v>
+        <v>-26.72595857729642</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>42902</v>
       </c>
       <c r="B808">
-        <v>-2.185016296611065</v>
+        <v>-2.203687104802466</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>42909</v>
       </c>
       <c r="B809">
-        <v>-39.02163342703498</v>
+        <v>-39.01678073019877</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6879,7 +6879,7 @@
         <v>42930</v>
       </c>
       <c r="B812">
-        <v>-18.08462329049819</v>
+        <v>-18.1028922317869</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>42965</v>
       </c>
       <c r="B817">
-        <v>2.392329565325829</v>
+        <v>2.392329565325827</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>43000</v>
       </c>
       <c r="B822">
-        <v>22.21328238186327</v>
+        <v>22.21328238186326</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>43007</v>
       </c>
       <c r="B823">
-        <v>63.95661698535532</v>
+        <v>63.95661698535533</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6999,7 +6999,7 @@
         <v>43035</v>
       </c>
       <c r="B827">
-        <v>2.253839754724913</v>
+        <v>2.254623889847084</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>43042</v>
       </c>
       <c r="B828">
-        <v>-54.36110927671472</v>
+        <v>-54.35820149014267</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>43063</v>
       </c>
       <c r="B831">
-        <v>-44.60683287312925</v>
+        <v>-44.61354363603702</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>43070</v>
       </c>
       <c r="B832">
-        <v>56.05895292622458</v>
+        <v>56.0658867496808</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>43077</v>
       </c>
       <c r="B833">
-        <v>80.62788151042392</v>
+        <v>80.61820292818933</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>43084</v>
       </c>
       <c r="B834">
-        <v>-68.33371794646976</v>
+        <v>-68.32953398509409</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7063,7 +7063,7 @@
         <v>43091</v>
       </c>
       <c r="B835">
-        <v>-41.20420890719915</v>
+        <v>-41.18564002166373</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>43098</v>
       </c>
       <c r="B836">
-        <v>-19.37577657120223</v>
+        <v>-19.39531165473092</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>43147</v>
       </c>
       <c r="B843">
-        <v>-3.974101340261343</v>
+        <v>-4.22101492050826</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>43203</v>
       </c>
       <c r="B851">
-        <v>-48.73397029821642</v>
+        <v>-48.73397029821641</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>43273</v>
       </c>
       <c r="B861">
-        <v>56.93310352342653</v>
+        <v>56.93310352342652</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>43315</v>
       </c>
       <c r="B867">
-        <v>-43.33387702997638</v>
+        <v>-43.33387702997639</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>43371</v>
       </c>
       <c r="B875">
-        <v>-5.507833388141846</v>
+        <v>-5.507833388141847</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>43420</v>
       </c>
       <c r="B882">
-        <v>-26.26210971737554</v>
+        <v>-26.26061618247326</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>43427</v>
       </c>
       <c r="B883">
-        <v>-7.101375086216319</v>
+        <v>-7.10420658617678</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>43434</v>
       </c>
       <c r="B884">
-        <v>-362.8536521772448</v>
+        <v>-362.853146628766</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>43441</v>
       </c>
       <c r="B885">
-        <v>-9.43654200808357</v>
+        <v>-9.438037250691078</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>43448</v>
       </c>
       <c r="B886">
-        <v>-6.245511875835635</v>
+        <v>-6.242821692466413</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>43462</v>
       </c>
       <c r="B888">
-        <v>33.14055559408794</v>
+        <v>31.8747328092778</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>43469</v>
       </c>
       <c r="B889">
-        <v>207.0980894108774</v>
+        <v>203.571768136012</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>43476</v>
       </c>
       <c r="B890">
-        <v>-390.2764532294328</v>
+        <v>-382.9705136710629</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7511,7 +7511,7 @@
         <v>43483</v>
       </c>
       <c r="B891">
-        <v>-140.9514142755229</v>
+        <v>-134.9105115139074</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7567,7 +7567,7 @@
         <v>43532</v>
       </c>
       <c r="B898">
-        <v>-2.346792808603002</v>
+        <v>-2.350227643435314</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7575,7 +7575,7 @@
         <v>43539</v>
       </c>
       <c r="B899">
-        <v>-20.23859724533486</v>
+        <v>-20.23616816594235</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7583,7 +7583,7 @@
         <v>43546</v>
       </c>
       <c r="B900">
-        <v>-14.41547508704157</v>
+        <v>-14.42083067556709</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>43553</v>
       </c>
       <c r="B901">
-        <v>1.534598976023336</v>
+        <v>1.542123833818552</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>43623</v>
       </c>
       <c r="B911">
-        <v>42.43917277507627</v>
+        <v>42.43869338574453</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>43630</v>
       </c>
       <c r="B912">
-        <v>-87.85531351488859</v>
+        <v>-87.85333715138694</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>43672</v>
       </c>
       <c r="B918">
-        <v>-77.56489110718505</v>
+        <v>-77.5627405550732</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>43686</v>
       </c>
       <c r="B920">
-        <v>129.3843454983149</v>
+        <v>129.3798523605086</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7751,7 +7751,7 @@
         <v>43693</v>
       </c>
       <c r="B921">
-        <v>38.13156335178183</v>
+        <v>38.13469223501772</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7759,7 +7759,7 @@
         <v>43700</v>
       </c>
       <c r="B922">
-        <v>-167.3796365707696</v>
+        <v>-167.3788840632703</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>43707</v>
       </c>
       <c r="B923">
-        <v>-60.31728141719066</v>
+        <v>-60.31687250120154</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7775,7 +7775,7 @@
         <v>43714</v>
       </c>
       <c r="B924">
-        <v>-43.01606394800506</v>
+        <v>-43.0196696529819</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7887,7 +7887,7 @@
         <v>43812</v>
       </c>
       <c r="B938">
-        <v>3.239848354673087</v>
+        <v>3.243869222799158</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7895,7 +7895,7 @@
         <v>43819</v>
       </c>
       <c r="B939">
-        <v>-67.03056840138541</v>
+        <v>-67.04651064563211</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7903,7 +7903,7 @@
         <v>43826</v>
       </c>
       <c r="B940">
-        <v>-10.06388857861708</v>
+        <v>-10.05628451619053</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>43833</v>
       </c>
       <c r="B941">
-        <v>4.59063684376421</v>
+        <v>4.602663749670853</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7919,7 +7919,7 @@
         <v>43840</v>
       </c>
       <c r="B942">
-        <v>36.95936944505198</v>
+        <v>36.93693781176317</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7927,7 +7927,7 @@
         <v>43847</v>
       </c>
       <c r="B943">
-        <v>-44.45244955066728</v>
+        <v>-44.43930951136166</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>43854</v>
       </c>
       <c r="B944">
-        <v>5.459519968338594</v>
+        <v>5.451360301985686</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7943,7 +7943,7 @@
         <v>43861</v>
       </c>
       <c r="B945">
-        <v>137.1296962798415</v>
+        <v>137.1191946123339</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>43868</v>
       </c>
       <c r="B946">
-        <v>20.14313434911651</v>
+        <v>20.17380996925147</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>43875</v>
       </c>
       <c r="B947">
-        <v>-187.7687836656943</v>
+        <v>-187.773507719507</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>43980</v>
       </c>
       <c r="B962">
-        <v>-82.83732721080085</v>
+        <v>-82.83620866656628</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>43987</v>
       </c>
       <c r="B963">
-        <v>-213.3748757273545</v>
+        <v>-213.3778500002375</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>44008</v>
       </c>
       <c r="B966">
-        <v>-10.57250042753724</v>
+        <v>-10.56172909329238</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>44043</v>
       </c>
       <c r="B971">
-        <v>20.10495224380035</v>
+        <v>20.10463693749923</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8159,7 +8159,7 @@
         <v>44050</v>
       </c>
       <c r="B972">
-        <v>-46.1798564287493</v>
+        <v>-46.17768849232678</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>44092</v>
       </c>
       <c r="B978">
-        <v>-35.02254673153461</v>
+        <v>-35.02518049743035</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>44099</v>
       </c>
       <c r="B979">
-        <v>51.4664012223039</v>
+        <v>51.46319723052607</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8223,7 +8223,7 @@
         <v>44106</v>
       </c>
       <c r="B980">
-        <v>-129.43516694875</v>
+        <v>-129.4345679533639</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>44113</v>
       </c>
       <c r="B981">
-        <v>-74.31088698393758</v>
+        <v>-74.30694532122678</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>44120</v>
       </c>
       <c r="B982">
-        <v>28.61356878224975</v>
+        <v>28.61010723428231</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>44127</v>
       </c>
       <c r="B983">
-        <v>-65.60943165502874</v>
+        <v>-65.60932577140706</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>44141</v>
       </c>
       <c r="B985">
-        <v>-150.7640890975473</v>
+        <v>-150.7635603424352</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>44169</v>
       </c>
       <c r="B989">
-        <v>4.550207959939789</v>
+        <v>4.55020795993979</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>44176</v>
       </c>
       <c r="B990">
-        <v>34.36565656666204</v>
+        <v>34.36565656666203</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>44197</v>
       </c>
       <c r="B993">
-        <v>-9.417870289345299</v>
+        <v>-9.4178702893453</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>44232</v>
       </c>
       <c r="B998">
-        <v>-31.41783831391191</v>
+        <v>-31.4178383139119</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>44302</v>
       </c>
       <c r="B1008">
-        <v>0.3823586217258748</v>
+        <v>0.3823586217258739</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8455,7 +8455,7 @@
         <v>44309</v>
       </c>
       <c r="B1009">
-        <v>43.01787084567755</v>
+        <v>43.01787084567756</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>44316</v>
       </c>
       <c r="B1010">
-        <v>-3.614084132788113</v>
+        <v>-3.614084132788111</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>44337</v>
       </c>
       <c r="B1013">
-        <v>-101.2997891217739</v>
+        <v>-101.3038875386607</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>44344</v>
       </c>
       <c r="B1014">
-        <v>-155.7277469741541</v>
+        <v>-155.7226286823335</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>44351</v>
       </c>
       <c r="B1015">
-        <v>-47.45056742849388</v>
+        <v>-47.45604987230975</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>44358</v>
       </c>
       <c r="B1016">
-        <v>-24.45668521142343</v>
+        <v>-24.45398368369391</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>44365</v>
       </c>
       <c r="B1017">
-        <v>-24.6764820799604</v>
+        <v>-24.67540684350801</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>44372</v>
       </c>
       <c r="B1018">
-        <v>-6.509035382542374</v>
+        <v>-6.50730047381618</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>44414</v>
       </c>
       <c r="B1024">
-        <v>-30.98806668286592</v>
+        <v>-30.98911254099773</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>44428</v>
       </c>
       <c r="B1026">
-        <v>249.0066094308447</v>
+        <v>249.0065590362943</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>44435</v>
       </c>
       <c r="B1027">
-        <v>-279.5641503654369</v>
+        <v>-279.5687830964662</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>44442</v>
       </c>
       <c r="B1028">
-        <v>-154.1504047978237</v>
+        <v>-154.1454840797373</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>44449</v>
       </c>
       <c r="B1029">
-        <v>137.7913959429341</v>
+        <v>137.7853351816888</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>44456</v>
       </c>
       <c r="B1030">
-        <v>19.44116843387832</v>
+        <v>19.45006322691564</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>44463</v>
       </c>
       <c r="B1031">
-        <v>-6.222128427619728</v>
+        <v>-6.22212842761973</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8647,7 +8647,7 @@
         <v>44477</v>
       </c>
       <c r="B1033">
-        <v>-49.12922997840278</v>
+        <v>-49.13144912042301</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8655,7 +8655,7 @@
         <v>44484</v>
       </c>
       <c r="B1034">
-        <v>35.4231865584061</v>
+        <v>35.41712579716073</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>44491</v>
       </c>
       <c r="B1035">
-        <v>-138.2224314679942</v>
+        <v>-138.217297286121</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8703,7 +8703,7 @@
         <v>44526</v>
       </c>
       <c r="B1040">
-        <v>19.10643374171809</v>
+        <v>19.10688083622243</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8711,7 +8711,7 @@
         <v>44533</v>
       </c>
       <c r="B1041">
-        <v>-74.78526293809236</v>
+        <v>-74.78789776202458</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>44540</v>
       </c>
       <c r="B1042">
-        <v>-7.136341922070734</v>
+        <v>-7.137001272124742</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>44547</v>
       </c>
       <c r="B1043">
-        <v>-8.35131602501634</v>
+        <v>-8.353917192659207</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>44554</v>
       </c>
       <c r="B1044">
-        <v>-125.8939767383823</v>
+        <v>-125.8913075550375</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8791,7 +8791,7 @@
         <v>44603</v>
       </c>
       <c r="B1051">
-        <v>-495.8256997948845</v>
+        <v>-495.8292915700305</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>44610</v>
       </c>
       <c r="B1052">
-        <v>8.883553038955307</v>
+        <v>8.880951871312442</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>44617</v>
       </c>
       <c r="B1053">
-        <v>84.13623467358316</v>
+        <v>84.13990825431412</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>44624</v>
       </c>
       <c r="B1054">
-        <v>-62.50817650754118</v>
+        <v>-62.5103610861091</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>44631</v>
       </c>
       <c r="B1055">
-        <v>72.07199027452241</v>
+        <v>72.07440972248392</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>44638</v>
       </c>
       <c r="B1056">
-        <v>-47.1896006740368</v>
+        <v>-47.18653927078647</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>44659</v>
       </c>
       <c r="B1059">
-        <v>149.6410134255389</v>
+        <v>149.6424419598376</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>44673</v>
       </c>
       <c r="B1061">
-        <v>8.782858874591881</v>
+        <v>8.782858874591879</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>44687</v>
       </c>
       <c r="B1063">
-        <v>-118.6587707458161</v>
+        <v>-118.6582598846698</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>44701</v>
       </c>
       <c r="B1065">
-        <v>-225.9753216492975</v>
+        <v>-225.9753216492974</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -9551,7 +9551,15 @@
         <v>45268</v>
       </c>
       <c r="B1146">
-        <v>4.32121643406931</v>
+        <v>-2.364603202642303</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2">
+      <c r="A1147" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B1147">
+        <v>23.72111976515186</v>
       </c>
     </row>
   </sheetData>
